--- a/Eye_Tracker_Raw_Data/LookTime/250ms/Tadpole_ET_summary_VRM_Single.xlsx
+++ b/Eye_Tracker_Raw_Data/LookTime/250ms/Tadpole_ET_summary_VRM_Single.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6679" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6504" uniqueCount="53">
   <si>
     <t>Fixation Duration_1a blue.JPG_new_Sum</t>
   </si>
@@ -523,10 +523,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I109"/>
+  <dimension ref="A1:I107"/>
   <sheetViews>
     <sheetView topLeftCell="A75" workbookViewId="0">
-      <selection activeCell="A110" sqref="A110"/>
+      <selection activeCell="A106" sqref="A106:XFD107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3542,111 +3542,56 @@
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B106" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="C106" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="D106" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="E106" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="F106" t="s">
-        <v>49</v>
+        <v>4</v>
       </c>
       <c r="G106" t="s">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="H106" t="s">
-        <v>51</v>
+        <v>6</v>
       </c>
       <c r="I106" t="s">
-        <v>52</v>
+        <v>7</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107">
-        <v>72</v>
+        <v>122</v>
       </c>
       <c r="B107">
-        <v>0.92</v>
+        <v>0.87</v>
       </c>
       <c r="C107">
-        <v>3.46</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="D107">
-        <v>3.25</v>
-      </c>
-      <c r="E107" t="s">
-        <v>8</v>
-      </c>
-      <c r="F107" t="s">
-        <v>8</v>
-      </c>
-      <c r="G107" t="s">
-        <v>8</v>
-      </c>
-      <c r="H107">
-        <v>3.53</v>
+        <v>1.63</v>
+      </c>
+      <c r="E107">
+        <v>0.83</v>
+      </c>
+      <c r="F107">
+        <v>0.83</v>
+      </c>
+      <c r="G107">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="H107" t="s">
+        <v>8</v>
       </c>
       <c r="I107">
-        <v>1.1200000000000001</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B108" t="s">
-        <v>9</v>
-      </c>
-      <c r="C108" t="s">
-        <v>10</v>
-      </c>
-      <c r="D108" t="s">
-        <v>11</v>
-      </c>
-      <c r="E108" t="s">
-        <v>12</v>
-      </c>
-      <c r="F108" t="s">
-        <v>4</v>
-      </c>
-      <c r="G108" t="s">
-        <v>5</v>
-      </c>
-      <c r="H108" t="s">
-        <v>6</v>
-      </c>
-      <c r="I108" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A109">
-        <v>122</v>
-      </c>
-      <c r="B109">
-        <v>0.87</v>
-      </c>
-      <c r="C109">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="D109">
-        <v>1.63</v>
-      </c>
-      <c r="E109">
-        <v>0.83</v>
-      </c>
-      <c r="F109">
-        <v>0.83</v>
-      </c>
-      <c r="G109">
-        <v>2.3199999999999998</v>
-      </c>
-      <c r="H109" t="s">
-        <v>8</v>
-      </c>
-      <c r="I109">
         <v>1.95</v>
       </c>
     </row>
@@ -3657,10 +3602,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I109"/>
+  <dimension ref="A1:I107"/>
   <sheetViews>
     <sheetView topLeftCell="A75" workbookViewId="0">
-      <selection activeCell="A108" sqref="A108:I109"/>
+      <selection activeCell="A106" sqref="A106:XFD107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6676,42 +6621,42 @@
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B106" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="C106" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="D106" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="E106" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="F106" t="s">
-        <v>49</v>
+        <v>4</v>
       </c>
       <c r="G106" t="s">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="H106" t="s">
-        <v>51</v>
+        <v>6</v>
       </c>
       <c r="I106" t="s">
-        <v>52</v>
+        <v>7</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107">
-        <v>72</v>
+        <v>122</v>
       </c>
       <c r="B107" t="s">
         <v>8</v>
       </c>
-      <c r="C107">
-        <v>0.25</v>
-      </c>
-      <c r="D107" t="s">
-        <v>8</v>
+      <c r="C107" t="s">
+        <v>8</v>
+      </c>
+      <c r="D107">
+        <v>0</v>
       </c>
       <c r="E107" t="s">
         <v>8</v>
@@ -6719,68 +6664,13 @@
       <c r="F107" t="s">
         <v>8</v>
       </c>
-      <c r="G107" t="s">
-        <v>8</v>
-      </c>
-      <c r="H107">
-        <v>0.25</v>
-      </c>
-      <c r="I107" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B108" t="s">
-        <v>9</v>
-      </c>
-      <c r="C108" t="s">
-        <v>10</v>
-      </c>
-      <c r="D108" t="s">
-        <v>11</v>
-      </c>
-      <c r="E108" t="s">
-        <v>12</v>
-      </c>
-      <c r="F108" t="s">
-        <v>4</v>
-      </c>
-      <c r="G108" t="s">
-        <v>5</v>
-      </c>
-      <c r="H108" t="s">
-        <v>6</v>
-      </c>
-      <c r="I108" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A109">
-        <v>122</v>
-      </c>
-      <c r="B109" t="s">
-        <v>8</v>
-      </c>
-      <c r="C109" t="s">
-        <v>8</v>
-      </c>
-      <c r="D109">
-        <v>0</v>
-      </c>
-      <c r="E109" t="s">
-        <v>8</v>
-      </c>
-      <c r="F109" t="s">
-        <v>8</v>
-      </c>
-      <c r="G109">
-        <v>0.25</v>
-      </c>
-      <c r="H109" t="s">
-        <v>8</v>
-      </c>
-      <c r="I109">
+      <c r="G107">
+        <v>0.25</v>
+      </c>
+      <c r="H107" t="s">
+        <v>8</v>
+      </c>
+      <c r="I107">
         <v>0.25</v>
       </c>
     </row>
@@ -6791,10 +6681,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I109"/>
+  <dimension ref="A1:I107"/>
   <sheetViews>
     <sheetView topLeftCell="A75" workbookViewId="0">
-      <selection activeCell="A108" sqref="A108:I109"/>
+      <selection activeCell="A106" sqref="A106:XFD107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9810,111 +9700,56 @@
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B106" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="C106" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="D106" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="E106" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="F106" t="s">
-        <v>49</v>
+        <v>4</v>
       </c>
       <c r="G106" t="s">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="H106" t="s">
-        <v>51</v>
+        <v>6</v>
       </c>
       <c r="I106" t="s">
-        <v>52</v>
+        <v>7</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107">
-        <v>72</v>
+        <v>122</v>
       </c>
       <c r="B107" t="s">
         <v>8</v>
       </c>
-      <c r="C107">
-        <v>0.25</v>
-      </c>
-      <c r="D107">
-        <v>0.04</v>
-      </c>
-      <c r="E107" t="s">
-        <v>8</v>
+      <c r="C107" t="s">
+        <v>8</v>
+      </c>
+      <c r="D107" t="s">
+        <v>8</v>
+      </c>
+      <c r="E107">
+        <v>0.1</v>
       </c>
       <c r="F107" t="s">
         <v>8</v>
       </c>
-      <c r="G107" t="s">
-        <v>8</v>
-      </c>
-      <c r="H107">
-        <v>0.25</v>
-      </c>
-      <c r="I107" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B108" t="s">
-        <v>9</v>
-      </c>
-      <c r="C108" t="s">
-        <v>10</v>
-      </c>
-      <c r="D108" t="s">
-        <v>11</v>
-      </c>
-      <c r="E108" t="s">
-        <v>12</v>
-      </c>
-      <c r="F108" t="s">
-        <v>4</v>
-      </c>
-      <c r="G108" t="s">
-        <v>5</v>
-      </c>
-      <c r="H108" t="s">
-        <v>6</v>
-      </c>
-      <c r="I108" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A109">
-        <v>122</v>
-      </c>
-      <c r="B109" t="s">
-        <v>8</v>
-      </c>
-      <c r="C109" t="s">
-        <v>8</v>
-      </c>
-      <c r="D109" t="s">
-        <v>8</v>
-      </c>
-      <c r="E109">
-        <v>0.1</v>
-      </c>
-      <c r="F109" t="s">
-        <v>8</v>
-      </c>
-      <c r="G109">
-        <v>0.25</v>
-      </c>
-      <c r="H109" t="s">
-        <v>8</v>
-      </c>
-      <c r="I109">
+      <c r="G107">
+        <v>0.25</v>
+      </c>
+      <c r="H107" t="s">
+        <v>8</v>
+      </c>
+      <c r="I107">
         <v>0.1</v>
       </c>
     </row>
@@ -9925,10 +9760,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I109"/>
+  <dimension ref="A1:I107"/>
   <sheetViews>
     <sheetView topLeftCell="A75" workbookViewId="0">
-      <selection activeCell="A108" sqref="A108:I109"/>
+      <selection activeCell="A106" sqref="A106:XFD107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12944,111 +12779,56 @@
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B106" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="C106" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="D106" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="E106" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="F106" t="s">
-        <v>49</v>
+        <v>4</v>
       </c>
       <c r="G106" t="s">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="H106" t="s">
-        <v>51</v>
+        <v>6</v>
       </c>
       <c r="I106" t="s">
-        <v>52</v>
+        <v>7</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107">
-        <v>72</v>
+        <v>122</v>
       </c>
       <c r="B107" t="s">
         <v>8</v>
       </c>
-      <c r="C107">
-        <v>0.13</v>
-      </c>
-      <c r="D107">
-        <v>0.25</v>
-      </c>
-      <c r="E107" t="s">
-        <v>8</v>
+      <c r="C107" t="s">
+        <v>8</v>
+      </c>
+      <c r="D107" t="s">
+        <v>8</v>
+      </c>
+      <c r="E107">
+        <v>0</v>
       </c>
       <c r="F107" t="s">
         <v>8</v>
       </c>
-      <c r="G107" t="s">
-        <v>8</v>
-      </c>
-      <c r="H107">
-        <v>0.1</v>
-      </c>
-      <c r="I107">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B108" t="s">
-        <v>9</v>
-      </c>
-      <c r="C108" t="s">
-        <v>10</v>
-      </c>
-      <c r="D108" t="s">
-        <v>11</v>
-      </c>
-      <c r="E108" t="s">
-        <v>12</v>
-      </c>
-      <c r="F108" t="s">
-        <v>4</v>
-      </c>
-      <c r="G108" t="s">
-        <v>5</v>
-      </c>
-      <c r="H108" t="s">
-        <v>6</v>
-      </c>
-      <c r="I108" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A109">
-        <v>122</v>
-      </c>
-      <c r="B109" t="s">
-        <v>8</v>
-      </c>
-      <c r="C109" t="s">
-        <v>8</v>
-      </c>
-      <c r="D109" t="s">
-        <v>8</v>
-      </c>
-      <c r="E109">
-        <v>0</v>
-      </c>
-      <c r="F109" t="s">
-        <v>8</v>
-      </c>
-      <c r="G109">
-        <v>0.25</v>
-      </c>
-      <c r="H109" t="s">
-        <v>8</v>
-      </c>
-      <c r="I109" t="s">
+      <c r="G107">
+        <v>0.25</v>
+      </c>
+      <c r="H107" t="s">
+        <v>8</v>
+      </c>
+      <c r="I107" t="s">
         <v>8</v>
       </c>
     </row>
@@ -13059,10 +12839,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I109"/>
+  <dimension ref="A1:I107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A80" workbookViewId="0">
-      <selection activeCell="A108" sqref="A108:I109"/>
+    <sheetView tabSelected="1" topLeftCell="A89" workbookViewId="0">
+      <selection activeCell="A106" sqref="A106:XFD107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13214,7 +12994,7 @@
         <v>49</v>
       </c>
       <c r="B6">
-        <f>-A108</f>
+        <f>-A106</f>
         <v>0</v>
       </c>
       <c r="C6" t="s">
@@ -16079,33 +15859,33 @@
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B106" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="C106" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="D106" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="E106" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="F106" t="s">
-        <v>49</v>
+        <v>4</v>
       </c>
       <c r="G106" t="s">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="H106" t="s">
-        <v>51</v>
+        <v>6</v>
       </c>
       <c r="I106" t="s">
-        <v>52</v>
+        <v>7</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107">
-        <v>72</v>
+        <v>122</v>
       </c>
       <c r="B107" t="s">
         <v>8</v>
@@ -16113,8 +15893,8 @@
       <c r="C107" t="s">
         <v>8</v>
       </c>
-      <c r="D107">
-        <v>0.25</v>
+      <c r="D107" t="s">
+        <v>8</v>
       </c>
       <c r="E107" t="s">
         <v>8</v>
@@ -16122,68 +15902,13 @@
       <c r="F107" t="s">
         <v>8</v>
       </c>
-      <c r="G107" t="s">
-        <v>8</v>
+      <c r="G107">
+        <v>0.18</v>
       </c>
       <c r="H107" t="s">
         <v>8</v>
       </c>
-      <c r="I107">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B108" t="s">
-        <v>9</v>
-      </c>
-      <c r="C108" t="s">
-        <v>10</v>
-      </c>
-      <c r="D108" t="s">
-        <v>11</v>
-      </c>
-      <c r="E108" t="s">
-        <v>12</v>
-      </c>
-      <c r="F108" t="s">
-        <v>4</v>
-      </c>
-      <c r="G108" t="s">
-        <v>5</v>
-      </c>
-      <c r="H108" t="s">
-        <v>6</v>
-      </c>
-      <c r="I108" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A109">
-        <v>122</v>
-      </c>
-      <c r="B109" t="s">
-        <v>8</v>
-      </c>
-      <c r="C109" t="s">
-        <v>8</v>
-      </c>
-      <c r="D109" t="s">
-        <v>8</v>
-      </c>
-      <c r="E109" t="s">
-        <v>8</v>
-      </c>
-      <c r="F109" t="s">
-        <v>8</v>
-      </c>
-      <c r="G109">
-        <v>0.18</v>
-      </c>
-      <c r="H109" t="s">
-        <v>8</v>
-      </c>
-      <c r="I109" t="s">
+      <c r="I107" t="s">
         <v>8</v>
       </c>
     </row>
@@ -16194,10 +15919,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I109"/>
+  <dimension ref="A1:I107"/>
   <sheetViews>
     <sheetView topLeftCell="A80" workbookViewId="0">
-      <selection activeCell="C112" sqref="C112"/>
+      <selection activeCell="A106" sqref="A106:XFD107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19213,33 +18938,33 @@
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B106" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="C106" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="D106" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="E106" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="F106" t="s">
-        <v>49</v>
+        <v>4</v>
       </c>
       <c r="G106" t="s">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="H106" t="s">
-        <v>51</v>
+        <v>6</v>
       </c>
       <c r="I106" t="s">
-        <v>52</v>
+        <v>7</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107">
-        <v>72</v>
+        <v>122</v>
       </c>
       <c r="B107" t="s">
         <v>8</v>
@@ -19263,61 +18988,6 @@
         <v>8</v>
       </c>
       <c r="I107" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B108" t="s">
-        <v>9</v>
-      </c>
-      <c r="C108" t="s">
-        <v>10</v>
-      </c>
-      <c r="D108" t="s">
-        <v>11</v>
-      </c>
-      <c r="E108" t="s">
-        <v>12</v>
-      </c>
-      <c r="F108" t="s">
-        <v>4</v>
-      </c>
-      <c r="G108" t="s">
-        <v>5</v>
-      </c>
-      <c r="H108" t="s">
-        <v>6</v>
-      </c>
-      <c r="I108" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A109">
-        <v>122</v>
-      </c>
-      <c r="B109" t="s">
-        <v>8</v>
-      </c>
-      <c r="C109" t="s">
-        <v>8</v>
-      </c>
-      <c r="D109" t="s">
-        <v>8</v>
-      </c>
-      <c r="E109" t="s">
-        <v>8</v>
-      </c>
-      <c r="F109" t="s">
-        <v>8</v>
-      </c>
-      <c r="G109" t="s">
-        <v>8</v>
-      </c>
-      <c r="H109" t="s">
-        <v>8</v>
-      </c>
-      <c r="I109" t="s">
         <v>8</v>
       </c>
     </row>
@@ -19328,10 +18998,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I109"/>
+  <dimension ref="A1:I107"/>
   <sheetViews>
     <sheetView topLeftCell="A75" workbookViewId="0">
-      <selection activeCell="C111" sqref="C111"/>
+      <selection activeCell="A106" sqref="A106:XFD107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22347,33 +22017,33 @@
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B106" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="C106" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="D106" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="E106" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="F106" t="s">
-        <v>49</v>
+        <v>4</v>
       </c>
       <c r="G106" t="s">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="H106" t="s">
-        <v>51</v>
+        <v>6</v>
       </c>
       <c r="I106" t="s">
-        <v>52</v>
+        <v>7</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107">
-        <v>72</v>
+        <v>122</v>
       </c>
       <c r="B107" t="s">
         <v>8</v>
@@ -22390,68 +22060,13 @@
       <c r="F107" t="s">
         <v>8</v>
       </c>
-      <c r="G107" t="s">
-        <v>8</v>
+      <c r="G107">
+        <v>0.05</v>
       </c>
       <c r="H107" t="s">
         <v>8</v>
       </c>
       <c r="I107">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B108" t="s">
-        <v>9</v>
-      </c>
-      <c r="C108" t="s">
-        <v>10</v>
-      </c>
-      <c r="D108" t="s">
-        <v>11</v>
-      </c>
-      <c r="E108" t="s">
-        <v>12</v>
-      </c>
-      <c r="F108" t="s">
-        <v>4</v>
-      </c>
-      <c r="G108" t="s">
-        <v>5</v>
-      </c>
-      <c r="H108" t="s">
-        <v>6</v>
-      </c>
-      <c r="I108" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A109">
-        <v>122</v>
-      </c>
-      <c r="B109" t="s">
-        <v>8</v>
-      </c>
-      <c r="C109" t="s">
-        <v>8</v>
-      </c>
-      <c r="D109" t="s">
-        <v>8</v>
-      </c>
-      <c r="E109" t="s">
-        <v>8</v>
-      </c>
-      <c r="F109" t="s">
-        <v>8</v>
-      </c>
-      <c r="G109">
-        <v>0.05</v>
-      </c>
-      <c r="H109" t="s">
-        <v>8</v>
-      </c>
-      <c r="I109">
         <v>0.1</v>
       </c>
     </row>
@@ -22462,10 +22077,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I109"/>
+  <dimension ref="A1:I107"/>
   <sheetViews>
     <sheetView topLeftCell="A75" workbookViewId="0">
-      <selection activeCell="B111" sqref="B111"/>
+      <selection activeCell="A106" sqref="A106:XFD107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25481,111 +25096,56 @@
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B106" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="C106" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="D106" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="E106" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="F106" t="s">
-        <v>49</v>
+        <v>4</v>
       </c>
       <c r="G106" t="s">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="H106" t="s">
-        <v>51</v>
+        <v>6</v>
       </c>
       <c r="I106" t="s">
-        <v>52</v>
+        <v>7</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107">
-        <v>72</v>
+        <v>122</v>
       </c>
       <c r="B107" t="s">
         <v>8</v>
       </c>
-      <c r="C107">
-        <v>0.23</v>
+      <c r="C107" t="s">
+        <v>8</v>
       </c>
       <c r="D107" t="s">
         <v>8</v>
       </c>
-      <c r="E107" t="s">
-        <v>8</v>
+      <c r="E107">
+        <v>0.01</v>
       </c>
       <c r="F107" t="s">
         <v>8</v>
       </c>
-      <c r="G107" t="s">
-        <v>8</v>
+      <c r="G107">
+        <v>0.09</v>
       </c>
       <c r="H107" t="s">
         <v>8</v>
       </c>
       <c r="I107">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B108" t="s">
-        <v>9</v>
-      </c>
-      <c r="C108" t="s">
-        <v>10</v>
-      </c>
-      <c r="D108" t="s">
-        <v>11</v>
-      </c>
-      <c r="E108" t="s">
-        <v>12</v>
-      </c>
-      <c r="F108" t="s">
-        <v>4</v>
-      </c>
-      <c r="G108" t="s">
-        <v>5</v>
-      </c>
-      <c r="H108" t="s">
-        <v>6</v>
-      </c>
-      <c r="I108" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A109">
-        <v>122</v>
-      </c>
-      <c r="B109" t="s">
-        <v>8</v>
-      </c>
-      <c r="C109" t="s">
-        <v>8</v>
-      </c>
-      <c r="D109" t="s">
-        <v>8</v>
-      </c>
-      <c r="E109">
-        <v>0.01</v>
-      </c>
-      <c r="F109" t="s">
-        <v>8</v>
-      </c>
-      <c r="G109">
-        <v>0.09</v>
-      </c>
-      <c r="H109" t="s">
-        <v>8</v>
-      </c>
-      <c r="I109">
         <v>0.25</v>
       </c>
     </row>
@@ -25596,10 +25156,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I109"/>
+  <dimension ref="A1:I107"/>
   <sheetViews>
     <sheetView topLeftCell="A75" workbookViewId="0">
-      <selection activeCell="A108" sqref="A108:I109"/>
+      <selection activeCell="A106" sqref="A106:XFD107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -28615,111 +28175,56 @@
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B106" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="C106" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="D106" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="E106" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="F106" t="s">
-        <v>49</v>
+        <v>4</v>
       </c>
       <c r="G106" t="s">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="H106" t="s">
-        <v>51</v>
+        <v>6</v>
       </c>
       <c r="I106" t="s">
-        <v>52</v>
+        <v>7</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107">
-        <v>72</v>
-      </c>
-      <c r="B107">
-        <v>0.05</v>
-      </c>
-      <c r="C107">
-        <v>0.1</v>
-      </c>
-      <c r="D107">
-        <v>0.22</v>
-      </c>
-      <c r="E107" t="s">
-        <v>8</v>
+        <v>122</v>
+      </c>
+      <c r="B107" t="s">
+        <v>8</v>
+      </c>
+      <c r="C107" t="s">
+        <v>8</v>
+      </c>
+      <c r="D107" t="s">
+        <v>8</v>
+      </c>
+      <c r="E107">
+        <v>0.25</v>
       </c>
       <c r="F107" t="s">
         <v>8</v>
       </c>
-      <c r="G107" t="s">
-        <v>8</v>
+      <c r="G107">
+        <v>0.12</v>
       </c>
       <c r="H107" t="s">
         <v>8</v>
       </c>
       <c r="I107">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B108" t="s">
-        <v>9</v>
-      </c>
-      <c r="C108" t="s">
-        <v>10</v>
-      </c>
-      <c r="D108" t="s">
-        <v>11</v>
-      </c>
-      <c r="E108" t="s">
-        <v>12</v>
-      </c>
-      <c r="F108" t="s">
-        <v>4</v>
-      </c>
-      <c r="G108" t="s">
-        <v>5</v>
-      </c>
-      <c r="H108" t="s">
-        <v>6</v>
-      </c>
-      <c r="I108" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A109">
-        <v>122</v>
-      </c>
-      <c r="B109" t="s">
-        <v>8</v>
-      </c>
-      <c r="C109" t="s">
-        <v>8</v>
-      </c>
-      <c r="D109" t="s">
-        <v>8</v>
-      </c>
-      <c r="E109">
-        <v>0.25</v>
-      </c>
-      <c r="F109" t="s">
-        <v>8</v>
-      </c>
-      <c r="G109">
-        <v>0.12</v>
-      </c>
-      <c r="H109" t="s">
-        <v>8</v>
-      </c>
-      <c r="I109">
         <v>0.25</v>
       </c>
     </row>
@@ -28730,10 +28235,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I109"/>
+  <dimension ref="A1:I107"/>
   <sheetViews>
     <sheetView topLeftCell="A75" workbookViewId="0">
-      <selection activeCell="A110" sqref="A110"/>
+      <selection activeCell="A106" sqref="A106:XFD107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31749,111 +31254,56 @@
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B106" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="C106" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="D106" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="E106" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="F106" t="s">
-        <v>49</v>
+        <v>4</v>
       </c>
       <c r="G106" t="s">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="H106" t="s">
-        <v>51</v>
+        <v>6</v>
       </c>
       <c r="I106" t="s">
-        <v>52</v>
+        <v>7</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107">
-        <v>72</v>
-      </c>
-      <c r="B107">
-        <v>0.08</v>
-      </c>
-      <c r="C107" t="s">
-        <v>8</v>
-      </c>
-      <c r="D107">
-        <v>0.25</v>
-      </c>
-      <c r="E107" t="s">
-        <v>8</v>
-      </c>
-      <c r="F107" t="s">
-        <v>8</v>
+        <v>122</v>
+      </c>
+      <c r="B107" t="s">
+        <v>8</v>
+      </c>
+      <c r="C107">
+        <v>0.15</v>
+      </c>
+      <c r="D107" t="s">
+        <v>8</v>
+      </c>
+      <c r="E107">
+        <v>0.25</v>
+      </c>
+      <c r="F107">
+        <v>0.18</v>
       </c>
       <c r="G107" t="s">
         <v>8</v>
       </c>
-      <c r="H107">
-        <v>0.13</v>
+      <c r="H107" t="s">
+        <v>8</v>
       </c>
       <c r="I107">
-        <v>0.12</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B108" t="s">
-        <v>9</v>
-      </c>
-      <c r="C108" t="s">
-        <v>10</v>
-      </c>
-      <c r="D108" t="s">
-        <v>11</v>
-      </c>
-      <c r="E108" t="s">
-        <v>12</v>
-      </c>
-      <c r="F108" t="s">
-        <v>4</v>
-      </c>
-      <c r="G108" t="s">
-        <v>5</v>
-      </c>
-      <c r="H108" t="s">
-        <v>6</v>
-      </c>
-      <c r="I108" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A109">
-        <v>122</v>
-      </c>
-      <c r="B109" t="s">
-        <v>8</v>
-      </c>
-      <c r="C109">
-        <v>0.15</v>
-      </c>
-      <c r="D109" t="s">
-        <v>8</v>
-      </c>
-      <c r="E109">
-        <v>0.25</v>
-      </c>
-      <c r="F109">
-        <v>0.18</v>
-      </c>
-      <c r="G109" t="s">
-        <v>8</v>
-      </c>
-      <c r="H109" t="s">
-        <v>8</v>
-      </c>
-      <c r="I109">
         <v>0.25</v>
       </c>
     </row>
@@ -31864,10 +31314,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I109"/>
+  <dimension ref="A1:I107"/>
   <sheetViews>
     <sheetView topLeftCell="A75" workbookViewId="0">
-      <selection activeCell="A110" sqref="A110"/>
+      <selection activeCell="A106" sqref="A106:XFD107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -34883,111 +34333,56 @@
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B106" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="C106" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="D106" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="E106" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="F106" t="s">
-        <v>49</v>
+        <v>4</v>
       </c>
       <c r="G106" t="s">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="H106" t="s">
-        <v>51</v>
+        <v>6</v>
       </c>
       <c r="I106" t="s">
-        <v>52</v>
+        <v>7</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107">
-        <v>72</v>
+        <v>122</v>
       </c>
       <c r="B107" t="s">
         <v>8</v>
       </c>
-      <c r="C107" t="s">
-        <v>8</v>
+      <c r="C107">
+        <v>0.25</v>
       </c>
       <c r="D107">
         <v>0.25</v>
       </c>
-      <c r="E107" t="s">
-        <v>8</v>
-      </c>
-      <c r="F107" t="s">
-        <v>8</v>
+      <c r="E107">
+        <v>0</v>
+      </c>
+      <c r="F107">
+        <v>0.25</v>
       </c>
       <c r="G107" t="s">
         <v>8</v>
       </c>
-      <c r="H107">
-        <v>0.25</v>
-      </c>
-      <c r="I107" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B108" t="s">
-        <v>9</v>
-      </c>
-      <c r="C108" t="s">
-        <v>10</v>
-      </c>
-      <c r="D108" t="s">
-        <v>11</v>
-      </c>
-      <c r="E108" t="s">
-        <v>12</v>
-      </c>
-      <c r="F108" t="s">
-        <v>4</v>
-      </c>
-      <c r="G108" t="s">
-        <v>5</v>
-      </c>
-      <c r="H108" t="s">
-        <v>6</v>
-      </c>
-      <c r="I108" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A109">
-        <v>122</v>
-      </c>
-      <c r="B109" t="s">
-        <v>8</v>
-      </c>
-      <c r="C109">
-        <v>0.25</v>
-      </c>
-      <c r="D109">
-        <v>0.25</v>
-      </c>
-      <c r="E109">
-        <v>0</v>
-      </c>
-      <c r="F109">
-        <v>0.25</v>
-      </c>
-      <c r="G109" t="s">
-        <v>8</v>
-      </c>
-      <c r="H109" t="s">
-        <v>8</v>
-      </c>
-      <c r="I109">
+      <c r="H107" t="s">
+        <v>8</v>
+      </c>
+      <c r="I107">
         <v>0.25</v>
       </c>
     </row>
@@ -34998,10 +34393,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I109"/>
+  <dimension ref="A1:I107"/>
   <sheetViews>
     <sheetView topLeftCell="A75" workbookViewId="0">
-      <selection activeCell="A108" sqref="A108:I109"/>
+      <selection activeCell="A106" sqref="A106:XFD107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -38017,111 +37412,56 @@
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B106" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="C106" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="D106" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="E106" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="F106" t="s">
-        <v>49</v>
+        <v>4</v>
       </c>
       <c r="G106" t="s">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="H106" t="s">
-        <v>51</v>
+        <v>6</v>
       </c>
       <c r="I106" t="s">
-        <v>52</v>
+        <v>7</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107">
-        <v>72</v>
+        <v>122</v>
       </c>
       <c r="B107" t="s">
         <v>8</v>
       </c>
-      <c r="C107" t="s">
-        <v>8</v>
+      <c r="C107">
+        <v>0.18</v>
       </c>
       <c r="D107">
-        <v>0.11</v>
+        <v>0.25</v>
       </c>
       <c r="E107" t="s">
         <v>8</v>
       </c>
-      <c r="F107" t="s">
-        <v>8</v>
-      </c>
-      <c r="G107" t="s">
-        <v>8</v>
-      </c>
-      <c r="H107">
-        <v>0.25</v>
-      </c>
-      <c r="I107" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B108" t="s">
-        <v>9</v>
-      </c>
-      <c r="C108" t="s">
-        <v>10</v>
-      </c>
-      <c r="D108" t="s">
-        <v>11</v>
-      </c>
-      <c r="E108" t="s">
-        <v>12</v>
-      </c>
-      <c r="F108" t="s">
-        <v>4</v>
-      </c>
-      <c r="G108" t="s">
-        <v>5</v>
-      </c>
-      <c r="H108" t="s">
-        <v>6</v>
-      </c>
-      <c r="I108" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A109">
-        <v>122</v>
-      </c>
-      <c r="B109" t="s">
-        <v>8</v>
-      </c>
-      <c r="C109">
-        <v>0.18</v>
-      </c>
-      <c r="D109">
-        <v>0.25</v>
-      </c>
-      <c r="E109" t="s">
-        <v>8</v>
-      </c>
-      <c r="F109">
+      <c r="F107">
         <v>0.19</v>
       </c>
-      <c r="G109">
+      <c r="G107">
         <v>0.06</v>
       </c>
-      <c r="H109" t="s">
-        <v>8</v>
-      </c>
-      <c r="I109">
+      <c r="H107" t="s">
+        <v>8</v>
+      </c>
+      <c r="I107">
         <v>0.25</v>
       </c>
     </row>
@@ -38132,10 +37472,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I109"/>
+  <dimension ref="A1:I107"/>
   <sheetViews>
     <sheetView topLeftCell="A75" workbookViewId="0">
-      <selection activeCell="A108" sqref="A108:I109"/>
+      <selection activeCell="A106" sqref="A106:XFD107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -41151,42 +40491,42 @@
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B106" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="C106" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="D106" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="E106" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="F106" t="s">
-        <v>49</v>
+        <v>4</v>
       </c>
       <c r="G106" t="s">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="H106" t="s">
-        <v>51</v>
+        <v>6</v>
       </c>
       <c r="I106" t="s">
-        <v>52</v>
+        <v>7</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107">
-        <v>72</v>
+        <v>122</v>
       </c>
       <c r="B107" t="s">
         <v>8</v>
       </c>
-      <c r="C107">
-        <v>0.03</v>
-      </c>
-      <c r="D107" t="s">
-        <v>8</v>
+      <c r="C107" t="s">
+        <v>8</v>
+      </c>
+      <c r="D107">
+        <v>0.25</v>
       </c>
       <c r="E107" t="s">
         <v>8</v>
@@ -41194,68 +40534,13 @@
       <c r="F107" t="s">
         <v>8</v>
       </c>
-      <c r="G107" t="s">
-        <v>8</v>
-      </c>
-      <c r="H107">
-        <v>0.25</v>
-      </c>
-      <c r="I107" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B108" t="s">
-        <v>9</v>
-      </c>
-      <c r="C108" t="s">
-        <v>10</v>
-      </c>
-      <c r="D108" t="s">
-        <v>11</v>
-      </c>
-      <c r="E108" t="s">
-        <v>12</v>
-      </c>
-      <c r="F108" t="s">
-        <v>4</v>
-      </c>
-      <c r="G108" t="s">
-        <v>5</v>
-      </c>
-      <c r="H108" t="s">
-        <v>6</v>
-      </c>
-      <c r="I108" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A109">
-        <v>122</v>
-      </c>
-      <c r="B109" t="s">
-        <v>8</v>
-      </c>
-      <c r="C109" t="s">
-        <v>8</v>
-      </c>
-      <c r="D109">
-        <v>0.25</v>
-      </c>
-      <c r="E109" t="s">
-        <v>8</v>
-      </c>
-      <c r="F109" t="s">
-        <v>8</v>
-      </c>
-      <c r="G109">
-        <v>0.25</v>
-      </c>
-      <c r="H109" t="s">
-        <v>8</v>
-      </c>
-      <c r="I109">
+      <c r="G107">
+        <v>0.25</v>
+      </c>
+      <c r="H107" t="s">
+        <v>8</v>
+      </c>
+      <c r="I107">
         <v>0.25</v>
       </c>
     </row>
